--- a/Code/Results/Cases/Case_4_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_153/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.367715742532198</v>
+        <v>2.389736918993435</v>
       </c>
       <c r="C2">
-        <v>0.2337346483288343</v>
+        <v>0.08370356941257739</v>
       </c>
       <c r="D2">
-        <v>0.1837286282437418</v>
+        <v>0.07561659067076221</v>
       </c>
       <c r="E2">
-        <v>0.01241234419668347</v>
+        <v>0.03554583425865143</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008635893873242636</v>
+        <v>0.002673195386167774</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.300738517522916</v>
+        <v>1.953148984501354</v>
       </c>
       <c r="L2">
-        <v>0.1454363409717772</v>
+        <v>0.2007485387920624</v>
       </c>
       <c r="M2">
-        <v>0.4089394045643999</v>
+        <v>0.4458007969451216</v>
       </c>
       <c r="N2">
-        <v>5.119868057212983</v>
+        <v>5.950383911107537</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.109657600179219</v>
+        <v>2.33813304586721</v>
       </c>
       <c r="C3">
-        <v>0.200960719383076</v>
+        <v>0.07503612207599986</v>
       </c>
       <c r="D3">
-        <v>0.1585518927456064</v>
+        <v>0.06904561120113328</v>
       </c>
       <c r="E3">
-        <v>0.0123500860042145</v>
+        <v>0.03563475596782428</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008732081204002907</v>
+        <v>0.002678928241498973</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.031276972679507</v>
+        <v>1.89533729178541</v>
       </c>
       <c r="L3">
-        <v>0.1323785710241339</v>
+        <v>0.1986554679801387</v>
       </c>
       <c r="M3">
-        <v>0.366058734130938</v>
+        <v>0.4375680211641395</v>
       </c>
       <c r="N3">
-        <v>4.886300588849167</v>
+        <v>5.870573711976476</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.955380340435141</v>
+        <v>2.307828134379946</v>
       </c>
       <c r="C4">
-        <v>0.1812476603068944</v>
+        <v>0.0697548868561455</v>
       </c>
       <c r="D4">
-        <v>0.143388736512378</v>
+        <v>0.06505379672303491</v>
       </c>
       <c r="E4">
-        <v>0.01232016081800014</v>
+        <v>0.03569518316566667</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008792652813850072</v>
+        <v>0.002682631639817412</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.869951956288446</v>
+        <v>1.861035546782773</v>
       </c>
       <c r="L4">
-        <v>0.1246032646755495</v>
+        <v>0.1974714040244905</v>
       </c>
       <c r="M4">
-        <v>0.3404432759444234</v>
+        <v>0.4327632486765154</v>
       </c>
       <c r="N4">
-        <v>4.746171276155422</v>
+        <v>5.821985800861881</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.893448868041418</v>
+        <v>2.295824721582647</v>
       </c>
       <c r="C5">
-        <v>0.1733026667165802</v>
+        <v>0.06761270454708779</v>
       </c>
       <c r="D5">
-        <v>0.1372737781111226</v>
+        <v>0.06343770596136267</v>
       </c>
       <c r="E5">
-        <v>0.01230995895639353</v>
+        <v>0.03572127683829729</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008817736347950761</v>
+        <v>0.002684187085083702</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.805130998854111</v>
+        <v>1.847356551628366</v>
       </c>
       <c r="L5">
-        <v>0.1214901055957043</v>
+        <v>0.197014284341634</v>
       </c>
       <c r="M5">
-        <v>0.330165756356692</v>
+        <v>0.4308680349132743</v>
       </c>
       <c r="N5">
-        <v>4.689807834598383</v>
+        <v>5.802289333108916</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.883218763688348</v>
+        <v>2.293852439587397</v>
       </c>
       <c r="C6">
-        <v>0.1719883248880478</v>
+        <v>0.06725759139654031</v>
       </c>
       <c r="D6">
-        <v>0.1362619882817171</v>
+        <v>0.06316999141547797</v>
       </c>
       <c r="E6">
-        <v>0.01230838274341961</v>
+        <v>0.03572569850287488</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008821926166948943</v>
+        <v>0.002684448165328138</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.794419881393594</v>
+        <v>1.845103203570119</v>
       </c>
       <c r="L6">
-        <v>0.1209763565454907</v>
+        <v>0.1969399131561786</v>
       </c>
       <c r="M6">
-        <v>0.3284683968691837</v>
+        <v>0.4305571232401633</v>
       </c>
       <c r="N6">
-        <v>4.680491097517859</v>
+        <v>5.799024969604574</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.954541453946234</v>
+        <v>2.30766485211916</v>
       </c>
       <c r="C7">
-        <v>0.1811401728268009</v>
+        <v>0.06972595661684977</v>
       </c>
       <c r="D7">
-        <v>0.14330602107907</v>
+        <v>0.06503195881538204</v>
       </c>
       <c r="E7">
-        <v>0.01232001528032489</v>
+        <v>0.03569552912095109</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008792989453919245</v>
+        <v>0.002682652429522037</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.869074179286798</v>
+        <v>1.860849857036357</v>
       </c>
       <c r="L7">
-        <v>0.1245610624628242</v>
+        <v>0.1974651363509281</v>
       </c>
       <c r="M7">
-        <v>0.340304041075818</v>
+        <v>0.432737435192287</v>
       </c>
       <c r="N7">
-        <v>4.745408248326129</v>
+        <v>5.821719749820147</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.277801399221119</v>
+        <v>2.371656870024481</v>
       </c>
       <c r="C8">
-        <v>0.2223396192211737</v>
+        <v>0.08070645163024892</v>
       </c>
       <c r="D8">
-        <v>0.1749799731426549</v>
+        <v>0.07334193951702161</v>
       </c>
       <c r="E8">
-        <v>0.01238909415855405</v>
+        <v>0.03557528667474008</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008668757886102069</v>
+        <v>0.002675134107496053</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.206898093081918</v>
+        <v>1.932966757042891</v>
       </c>
       <c r="L8">
-        <v>0.140880243820888</v>
+        <v>0.2000058508010767</v>
       </c>
       <c r="M8">
-        <v>0.3939944660279551</v>
+        <v>0.4429101201266832</v>
       </c>
       <c r="N8">
-        <v>5.03859934021736</v>
+        <v>5.922778366148975</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.950413469792181</v>
+        <v>2.508148577949214</v>
       </c>
       <c r="C9">
-        <v>0.307141981922058</v>
+        <v>0.1025737716745141</v>
       </c>
       <c r="D9">
-        <v>0.2399473882457386</v>
+        <v>0.08998522577051915</v>
       </c>
       <c r="E9">
-        <v>0.0125953446996907</v>
+        <v>0.03538559859513191</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008436146220389684</v>
+        <v>0.002661838495837369</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.90800621359773</v>
+        <v>2.083934028915451</v>
       </c>
       <c r="L9">
-        <v>0.1750837262839013</v>
+        <v>0.2057919383245732</v>
       </c>
       <c r="M9">
-        <v>0.5058692565465108</v>
+        <v>0.4648519769271431</v>
       </c>
       <c r="N9">
-        <v>5.643853718466289</v>
+        <v>6.124312908559091</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.477008055542228</v>
+        <v>2.615226189492887</v>
       </c>
       <c r="C10">
-        <v>0.3730885091429741</v>
+        <v>0.118862458152762</v>
       </c>
       <c r="D10">
-        <v>0.2902236012305224</v>
+        <v>0.1024371027844211</v>
       </c>
       <c r="E10">
-        <v>0.01279806991627019</v>
+        <v>0.03527415888064933</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008270403104273993</v>
+        <v>0.002652942421106942</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.455982435515978</v>
+        <v>2.200775532140597</v>
       </c>
       <c r="L10">
-        <v>0.2019949545495052</v>
+        <v>0.210536081609817</v>
       </c>
       <c r="M10">
-        <v>0.5935409971876098</v>
+        <v>0.4822016605456341</v>
       </c>
       <c r="N10">
-        <v>6.113715336091076</v>
+        <v>6.274525286758774</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.725914722150094</v>
+        <v>2.665435113588558</v>
       </c>
       <c r="C11">
-        <v>0.4041951882090871</v>
+        <v>0.1263251699834598</v>
       </c>
       <c r="D11">
-        <v>0.3138575725537294</v>
+        <v>0.1081531838116376</v>
       </c>
       <c r="E11">
-        <v>0.01290361149985753</v>
+        <v>0.03522948820165706</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008195720964316487</v>
+        <v>0.002649082534764346</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.714843205089437</v>
+        <v>2.255240794324379</v>
       </c>
       <c r="L11">
-        <v>0.2147386414054182</v>
+        <v>0.2128021377048981</v>
       </c>
       <c r="M11">
-        <v>0.6349951527168756</v>
+        <v>0.4903645726283798</v>
       </c>
       <c r="N11">
-        <v>6.334674525442267</v>
+        <v>6.343348548187691</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.821738682080706</v>
+        <v>2.684664879700676</v>
       </c>
       <c r="C12">
-        <v>0.4161645995415313</v>
+        <v>0.1291590240153369</v>
       </c>
       <c r="D12">
-        <v>0.3229372202722374</v>
+        <v>0.1103253425359298</v>
       </c>
       <c r="E12">
-        <v>0.01294571604427208</v>
+        <v>0.0352134358023739</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008167504964382177</v>
+        <v>0.002647647613893989</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.81448228795216</v>
+        <v>2.276055969001902</v>
       </c>
       <c r="L12">
-        <v>0.2196475269040832</v>
+        <v>0.2136758015808056</v>
       </c>
       <c r="M12">
-        <v>0.6509557724892545</v>
+        <v>0.4934947673597421</v>
       </c>
       <c r="N12">
-        <v>6.419551962628134</v>
+        <v>6.369482178253065</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.801027626801897</v>
+        <v>2.680513746418512</v>
       </c>
       <c r="C13">
-        <v>0.4135777833255361</v>
+        <v>0.1285483475803915</v>
       </c>
       <c r="D13">
-        <v>0.3209756214503301</v>
+        <v>0.1098571883467514</v>
       </c>
       <c r="E13">
-        <v>0.01293654900890262</v>
+        <v>0.03521685461687518</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008173579583750413</v>
+        <v>0.002647955463295787</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.792947313820491</v>
+        <v>2.271564558277703</v>
       </c>
       <c r="L13">
-        <v>0.2185864218579923</v>
+        <v>0.2134869498702727</v>
       </c>
       <c r="M13">
-        <v>0.6475060354368907</v>
+        <v>0.4928188829296687</v>
       </c>
       <c r="N13">
-        <v>6.401215580911355</v>
+        <v>6.36385062342265</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.733765392319413</v>
+        <v>2.667012807233277</v>
       </c>
       <c r="C14">
-        <v>0.4051759185864228</v>
+        <v>0.1265581531795021</v>
       </c>
       <c r="D14">
-        <v>0.314601829451604</v>
+        <v>0.1083317352358648</v>
       </c>
       <c r="E14">
-        <v>0.01290703119691594</v>
+        <v>0.03522815027271653</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008193398563452236</v>
+        <v>0.002648963948197473</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.723006749196429</v>
+        <v>2.256949447502222</v>
       </c>
       <c r="L14">
-        <v>0.2151407639183986</v>
+        <v>0.2128737025325194</v>
       </c>
       <c r="M14">
-        <v>0.6363027454756178</v>
+        <v>0.4906213113835278</v>
       </c>
       <c r="N14">
-        <v>6.341632252229601</v>
+        <v>6.345497132879927</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.692776745757044</v>
+        <v>2.658771354191799</v>
       </c>
       <c r="C15">
-        <v>0.4000552670612194</v>
+        <v>0.1253401371195935</v>
       </c>
       <c r="D15">
-        <v>0.3107152744058794</v>
+        <v>0.1073983464985702</v>
       </c>
       <c r="E15">
-        <v>0.01288923642136552</v>
+        <v>0.0352351815486287</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008205545433245583</v>
+        <v>0.002649585151116675</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.680383924916669</v>
+        <v>2.248022105578571</v>
       </c>
       <c r="L15">
-        <v>0.2130413769612431</v>
+        <v>0.2125000980683609</v>
       </c>
       <c r="M15">
-        <v>0.6294758164771892</v>
+        <v>0.4892803299685653</v>
       </c>
       <c r="N15">
-        <v>6.305298027961555</v>
+        <v>6.334264469315315</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.460948046252099</v>
+        <v>2.611975180484535</v>
       </c>
       <c r="C16">
-        <v>0.371080423584317</v>
+        <v>0.1183758407680955</v>
       </c>
       <c r="D16">
-        <v>0.2886960875840714</v>
+        <v>0.1020645978117045</v>
       </c>
       <c r="E16">
-        <v>0.01279145875118193</v>
+        <v>0.03527719918807382</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008275294988988943</v>
+        <v>0.002653198423314312</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.439277544205027</v>
+        <v>2.197242655878256</v>
       </c>
       <c r="L16">
-        <v>0.2011731246637822</v>
+        <v>0.2103901644333348</v>
       </c>
       <c r="M16">
-        <v>0.5908665302171912</v>
+        <v>0.4816736530517289</v>
       </c>
       <c r="N16">
-        <v>6.099434131729708</v>
+        <v>6.270037502089423</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.321274069684364</v>
+        <v>2.583651970175424</v>
       </c>
       <c r="C17">
-        <v>0.3536094022976215</v>
+        <v>0.1141172185017183</v>
       </c>
       <c r="D17">
-        <v>0.2753970109767891</v>
+        <v>0.09880587023977228</v>
       </c>
       <c r="E17">
-        <v>0.01273503389735309</v>
+        <v>0.03530451647660193</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008318241587355213</v>
+        <v>0.002655462829824677</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.293978886886748</v>
+        <v>2.166428567197158</v>
       </c>
       <c r="L17">
-        <v>0.1940281785188489</v>
+        <v>0.2091234567013203</v>
       </c>
       <c r="M17">
-        <v>0.5676081826555759</v>
+        <v>0.4770766035506853</v>
       </c>
       <c r="N17">
-        <v>5.975103659108328</v>
+        <v>6.230762892733907</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.241802883593721</v>
+        <v>2.56750220655988</v>
       </c>
       <c r="C18">
-        <v>0.3436626683838426</v>
+        <v>0.1116727344983417</v>
       </c>
       <c r="D18">
-        <v>0.2678181916385967</v>
+        <v>0.09693638820826322</v>
       </c>
       <c r="E18">
-        <v>0.01270381825045863</v>
+        <v>0.0353207958104389</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008343013237579394</v>
+        <v>0.002656782865490187</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.21129305336342</v>
+        <v>2.148828658080618</v>
       </c>
       <c r="L18">
-        <v>0.1899650705404525</v>
+        <v>0.2084050355837519</v>
       </c>
       <c r="M18">
-        <v>0.5543760626192409</v>
+        <v>0.474457947204435</v>
       </c>
       <c r="N18">
-        <v>5.904260078918156</v>
+        <v>6.208219311395226</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.215037674946245</v>
+        <v>2.562058354172962</v>
       </c>
       <c r="C19">
-        <v>0.340311551508421</v>
+        <v>0.1108459181596686</v>
       </c>
       <c r="D19">
-        <v>0.2652636628852179</v>
+        <v>0.09630424176229724</v>
       </c>
       <c r="E19">
-        <v>0.01269345569273428</v>
+        <v>0.03532640520865549</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008351413582496662</v>
+        <v>0.002657232836101474</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.183442581869883</v>
+        <v>2.142890804610204</v>
       </c>
       <c r="L19">
-        <v>0.1885970432631154</v>
+        <v>0.208163533634405</v>
       </c>
       <c r="M19">
-        <v>0.54991983851356</v>
+        <v>0.4735756797717627</v>
       </c>
       <c r="N19">
-        <v>5.880383662313903</v>
+        <v>6.200594330586796</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.336051500986741</v>
+        <v>2.586652422846441</v>
       </c>
       <c r="C20">
-        <v>0.3554584431185219</v>
+        <v>0.114570040463235</v>
       </c>
       <c r="D20">
-        <v>0.2768052905299783</v>
+        <v>0.09915226394792853</v>
       </c>
       <c r="E20">
-        <v>0.01274091075340555</v>
+        <v>0.03530154982696887</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000831366287640023</v>
+        <v>0.002655219958651605</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.309352863734375</v>
+        <v>2.169695983003123</v>
       </c>
       <c r="L20">
-        <v>0.1947838852478867</v>
+        <v>0.2092572485549482</v>
       </c>
       <c r="M20">
-        <v>0.5700687678746874</v>
+        <v>0.4775633325334638</v>
       </c>
       <c r="N20">
-        <v>5.988268573693972</v>
+        <v>6.234938958741139</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.753477438543541</v>
+        <v>2.670972468342939</v>
       </c>
       <c r="C21">
-        <v>0.4076383256014537</v>
+        <v>0.1271425052208599</v>
       </c>
       <c r="D21">
-        <v>0.3164702634328336</v>
+        <v>0.1087795900499913</v>
       </c>
       <c r="E21">
-        <v>0.01291564129248224</v>
+        <v>0.03522480905390291</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008187575829660916</v>
+        <v>0.002648667007269635</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.743504130651218</v>
+        <v>2.261237081431716</v>
       </c>
       <c r="L21">
-        <v>0.2161504858644179</v>
+        <v>0.2130534055950193</v>
       </c>
       <c r="M21">
-        <v>0.6395859707614449</v>
+        <v>0.49126572936418</v>
       </c>
       <c r="N21">
-        <v>6.359099168074977</v>
+        <v>6.350886041199658</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.035558989054721</v>
+        <v>2.727344384387834</v>
       </c>
       <c r="C22">
-        <v>0.4428660606248513</v>
+        <v>0.135405441825867</v>
       </c>
       <c r="D22">
-        <v>0.3431627951028418</v>
+        <v>0.1151160024510602</v>
       </c>
       <c r="E22">
-        <v>0.0130424343580513</v>
+        <v>0.03517968593118947</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008105524792526923</v>
+        <v>0.002644540032090725</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.03679082575178</v>
+        <v>2.322174770470895</v>
       </c>
       <c r="L22">
-        <v>0.2306055888888778</v>
+        <v>0.2156251145524521</v>
       </c>
       <c r="M22">
-        <v>0.6865725075415199</v>
+        <v>0.500448899390733</v>
       </c>
       <c r="N22">
-        <v>6.608577283590932</v>
+        <v>6.427082952955857</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.884076260768154</v>
+        <v>2.697141575944443</v>
       </c>
       <c r="C23">
-        <v>0.4239499890907439</v>
+        <v>0.1309910452292513</v>
       </c>
       <c r="D23">
-        <v>0.3288386381469195</v>
+        <v>0.1117300191871209</v>
       </c>
       <c r="E23">
-        <v>0.0129735256782082</v>
+        <v>0.03520330952292605</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008149298687300925</v>
+        <v>0.002646728475342329</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.879297729084954</v>
+        <v>2.289549087478747</v>
       </c>
       <c r="L23">
-        <v>0.2228416737360277</v>
+        <v>0.2142442327132414</v>
       </c>
       <c r="M23">
-        <v>0.6613392288375053</v>
+        <v>0.4955267563879744</v>
       </c>
       <c r="N23">
-        <v>6.474713165433286</v>
+        <v>6.386376519568728</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.329368057819522</v>
+        <v>2.585295502065662</v>
       </c>
       <c r="C24">
-        <v>0.3546221900583646</v>
+        <v>0.114365307667839</v>
       </c>
       <c r="D24">
-        <v>0.2761684001547735</v>
+        <v>0.09899564689476392</v>
       </c>
       <c r="E24">
-        <v>0.0127382500312665</v>
+        <v>0.03530288926033487</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008315732656176325</v>
+        <v>0.002655329704040071</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.302399663922017</v>
+        <v>2.168218424606721</v>
       </c>
       <c r="L24">
-        <v>0.1944420920748939</v>
+        <v>0.2091967306545115</v>
       </c>
       <c r="M24">
-        <v>0.5689559057664937</v>
+        <v>0.477343206845191</v>
       </c>
       <c r="N24">
-        <v>5.98231474820156</v>
+        <v>6.233050847520417</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.763463164847508</v>
+        <v>2.47003685507957</v>
       </c>
       <c r="C25">
-        <v>0.2836568392097547</v>
+        <v>0.09662033278863191</v>
       </c>
       <c r="D25">
-        <v>0.2219891177325479</v>
+        <v>0.0854443229963664</v>
       </c>
       <c r="E25">
-        <v>0.01253121395313439</v>
+        <v>0.03543199744222081</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008498045249465567</v>
+        <v>0.002665281392464486</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.713307881396361</v>
+        <v>2.042060530952313</v>
       </c>
       <c r="L25">
-        <v>0.1655527936863024</v>
+        <v>0.2041402851651668</v>
       </c>
       <c r="M25">
-        <v>0.4747585826989464</v>
+        <v>0.4587013185561943</v>
       </c>
       <c r="N25">
-        <v>5.476226724529113</v>
+        <v>6.0694228687573</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_153/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.389736918993435</v>
+        <v>2.367715742532141</v>
       </c>
       <c r="C2">
-        <v>0.08370356941257739</v>
+        <v>0.2337346483288201</v>
       </c>
       <c r="D2">
-        <v>0.07561659067076221</v>
+        <v>0.1837286282433865</v>
       </c>
       <c r="E2">
-        <v>0.03554583425865143</v>
+        <v>0.01241234419670256</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002673195386167774</v>
+        <v>0.0008635893871682399</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.953148984501354</v>
+        <v>2.300738517522745</v>
       </c>
       <c r="L2">
-        <v>0.2007485387920624</v>
+        <v>0.1454363409718482</v>
       </c>
       <c r="M2">
-        <v>0.4458007969451216</v>
+        <v>0.4089394045643999</v>
       </c>
       <c r="N2">
-        <v>5.950383911107537</v>
+        <v>5.11986805721304</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.33813304586721</v>
+        <v>2.109657600179162</v>
       </c>
       <c r="C3">
-        <v>0.07503612207599986</v>
+        <v>0.2009607193833318</v>
       </c>
       <c r="D3">
-        <v>0.06904561120113328</v>
+        <v>0.158551892745578</v>
       </c>
       <c r="E3">
-        <v>0.03563475596782428</v>
+        <v>0.01235008600423804</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002678928241498973</v>
+        <v>0.0008732081204574227</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.89533729178541</v>
+        <v>2.031276972679422</v>
       </c>
       <c r="L3">
-        <v>0.1986554679801387</v>
+        <v>0.1323785710240983</v>
       </c>
       <c r="M3">
-        <v>0.4375680211641395</v>
+        <v>0.366058734130938</v>
       </c>
       <c r="N3">
-        <v>5.870573711976476</v>
+        <v>4.886300588849139</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.307828134379946</v>
+        <v>1.955380340435141</v>
       </c>
       <c r="C4">
-        <v>0.0697548868561455</v>
+        <v>0.1812476603063686</v>
       </c>
       <c r="D4">
-        <v>0.06505379672303491</v>
+        <v>0.1433887365122217</v>
       </c>
       <c r="E4">
-        <v>0.03569518316566667</v>
+        <v>0.01232016081799481</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002682631639817412</v>
+        <v>0.0008792652814434208</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.861035546782773</v>
+        <v>1.869951956288475</v>
       </c>
       <c r="L4">
-        <v>0.1974714040244905</v>
+        <v>0.1246032646755708</v>
       </c>
       <c r="M4">
-        <v>0.4327632486765154</v>
+        <v>0.3404432759444376</v>
       </c>
       <c r="N4">
-        <v>5.821985800861881</v>
+        <v>4.746171276155394</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.295824721582647</v>
+        <v>1.893448868041389</v>
       </c>
       <c r="C5">
-        <v>0.06761270454708779</v>
+        <v>0.173302666716026</v>
       </c>
       <c r="D5">
-        <v>0.06343770596136267</v>
+        <v>0.1372737781112079</v>
       </c>
       <c r="E5">
-        <v>0.03572127683829729</v>
+        <v>0.01230995895636422</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002684187085083702</v>
+        <v>0.0008817736349157249</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.847356551628366</v>
+        <v>1.805130998854253</v>
       </c>
       <c r="L5">
-        <v>0.197014284341634</v>
+        <v>0.1214901055959032</v>
       </c>
       <c r="M5">
-        <v>0.4308680349132743</v>
+        <v>0.3301657563566991</v>
       </c>
       <c r="N5">
-        <v>5.802289333108916</v>
+        <v>4.689807834598383</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.293852439587397</v>
+        <v>1.883218763688291</v>
       </c>
       <c r="C6">
-        <v>0.06725759139654031</v>
+        <v>0.1719883248880478</v>
       </c>
       <c r="D6">
-        <v>0.06316999141547797</v>
+        <v>0.1362619882818166</v>
       </c>
       <c r="E6">
-        <v>0.03572569850287488</v>
+        <v>0.01230838274341561</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002684448165328138</v>
+        <v>0.0008821926166183593</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.845103203570119</v>
+        <v>1.794419881393395</v>
       </c>
       <c r="L6">
-        <v>0.1969399131561786</v>
+        <v>0.1209763565455333</v>
       </c>
       <c r="M6">
-        <v>0.4305571232401633</v>
+        <v>0.3284683968691837</v>
       </c>
       <c r="N6">
-        <v>5.799024969604574</v>
+        <v>4.680491097517802</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.30766485211916</v>
+        <v>1.954541453946092</v>
       </c>
       <c r="C7">
-        <v>0.06972595661684977</v>
+        <v>0.1811401728267867</v>
       </c>
       <c r="D7">
-        <v>0.06503195881538204</v>
+        <v>0.1433060210792974</v>
       </c>
       <c r="E7">
-        <v>0.03569552912095109</v>
+        <v>0.01232001528032622</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002682652429522037</v>
+        <v>0.0008792989453929589</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.860849857036357</v>
+        <v>1.869074179286685</v>
       </c>
       <c r="L7">
-        <v>0.1974651363509281</v>
+        <v>0.1245610624627673</v>
       </c>
       <c r="M7">
-        <v>0.432737435192287</v>
+        <v>0.3403040410758322</v>
       </c>
       <c r="N7">
-        <v>5.821719749820147</v>
+        <v>4.745408248326157</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.371656870024481</v>
+        <v>2.277801399220834</v>
       </c>
       <c r="C8">
-        <v>0.08070645163024892</v>
+        <v>0.2223396192208895</v>
       </c>
       <c r="D8">
-        <v>0.07334193951702161</v>
+        <v>0.1749799731428254</v>
       </c>
       <c r="E8">
-        <v>0.03557528667474008</v>
+        <v>0.01238909415851897</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002675134107496053</v>
+        <v>0.0008668757885371601</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.932966757042891</v>
+        <v>2.206898093081776</v>
       </c>
       <c r="L8">
-        <v>0.2000058508010767</v>
+        <v>0.1408802438207957</v>
       </c>
       <c r="M8">
-        <v>0.4429101201266832</v>
+        <v>0.3939944660279764</v>
       </c>
       <c r="N8">
-        <v>5.922778366148975</v>
+        <v>5.038599340217417</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.508148577949214</v>
+        <v>2.950413469792238</v>
       </c>
       <c r="C9">
-        <v>0.1025737716745141</v>
+        <v>0.307141981922058</v>
       </c>
       <c r="D9">
-        <v>0.08998522577051915</v>
+        <v>0.2399473882460086</v>
       </c>
       <c r="E9">
-        <v>0.03538559859513191</v>
+        <v>0.01259534469972756</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002661838495837369</v>
+        <v>0.0008436146222437256</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.083934028915451</v>
+        <v>2.90800621359773</v>
       </c>
       <c r="L9">
-        <v>0.2057919383245732</v>
+        <v>0.1750837262839369</v>
       </c>
       <c r="M9">
-        <v>0.4648519769271431</v>
+        <v>0.5058692565465179</v>
       </c>
       <c r="N9">
-        <v>6.124312908559091</v>
+        <v>5.643853718466289</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.615226189492887</v>
+        <v>3.477008055542058</v>
       </c>
       <c r="C10">
-        <v>0.118862458152762</v>
+        <v>0.3730885091435425</v>
       </c>
       <c r="D10">
-        <v>0.1024371027844211</v>
+        <v>0.2902236012303376</v>
       </c>
       <c r="E10">
-        <v>0.03527415888064933</v>
+        <v>0.01279806991623067</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002652942421106942</v>
+        <v>0.0008270403104880386</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.200775532140597</v>
+        <v>3.455982435516034</v>
       </c>
       <c r="L10">
-        <v>0.210536081609817</v>
+        <v>0.2019949545494484</v>
       </c>
       <c r="M10">
-        <v>0.4822016605456341</v>
+        <v>0.5935409971876098</v>
       </c>
       <c r="N10">
-        <v>6.274525286758774</v>
+        <v>6.113715336091104</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.665435113588558</v>
+        <v>3.725914722150435</v>
       </c>
       <c r="C11">
-        <v>0.1263251699834598</v>
+        <v>0.4041951882089734</v>
       </c>
       <c r="D11">
-        <v>0.1081531838116376</v>
+        <v>0.3138575725534878</v>
       </c>
       <c r="E11">
-        <v>0.03522948820165706</v>
+        <v>0.0129036114997505</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002649082534764346</v>
+        <v>0.0008195720964887525</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.255240794324379</v>
+        <v>3.714843205089437</v>
       </c>
       <c r="L11">
-        <v>0.2128021377048981</v>
+        <v>0.2147386414053045</v>
       </c>
       <c r="M11">
-        <v>0.4903645726283798</v>
+        <v>0.6349951527168756</v>
       </c>
       <c r="N11">
-        <v>6.343348548187691</v>
+        <v>6.334674525442324</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.684664879700676</v>
+        <v>3.821738682080536</v>
       </c>
       <c r="C12">
-        <v>0.1291590240153369</v>
+        <v>0.4161645995409913</v>
       </c>
       <c r="D12">
-        <v>0.1103253425359298</v>
+        <v>0.3229372202720384</v>
       </c>
       <c r="E12">
-        <v>0.0352134358023739</v>
+        <v>0.01294571604426276</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002647647613893989</v>
+        <v>0.0008167504963483248</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.276055969001902</v>
+        <v>3.814482287952274</v>
       </c>
       <c r="L12">
-        <v>0.2136758015808056</v>
+        <v>0.2196475269038984</v>
       </c>
       <c r="M12">
-        <v>0.4934947673597421</v>
+        <v>0.6509557724892687</v>
       </c>
       <c r="N12">
-        <v>6.369482178253065</v>
+        <v>6.419551962628191</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.680513746418512</v>
+        <v>3.80102762680184</v>
       </c>
       <c r="C13">
-        <v>0.1285483475803915</v>
+        <v>0.4135777833253371</v>
       </c>
       <c r="D13">
-        <v>0.1098571883467514</v>
+        <v>0.3209756214503443</v>
       </c>
       <c r="E13">
-        <v>0.03521685461687518</v>
+        <v>0.01293654900887331</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002647955463295787</v>
+        <v>0.0008173579584184812</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.271564558277703</v>
+        <v>3.792947313820662</v>
       </c>
       <c r="L13">
-        <v>0.2134869498702727</v>
+        <v>0.2185864218577507</v>
       </c>
       <c r="M13">
-        <v>0.4928188829296687</v>
+        <v>0.6475060354369333</v>
       </c>
       <c r="N13">
-        <v>6.36385062342265</v>
+        <v>6.401215580911355</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.667012807233277</v>
+        <v>3.733765392319469</v>
       </c>
       <c r="C14">
-        <v>0.1265581531795021</v>
+        <v>0.4051759185857691</v>
       </c>
       <c r="D14">
-        <v>0.1083317352358648</v>
+        <v>0.3146018294516182</v>
       </c>
       <c r="E14">
-        <v>0.03522815027271653</v>
+        <v>0.01290703119687509</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002648963948197473</v>
+        <v>0.000819339856348046</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.256949447502222</v>
+        <v>3.723006749196543</v>
       </c>
       <c r="L14">
-        <v>0.2128737025325194</v>
+        <v>0.2151407639184555</v>
       </c>
       <c r="M14">
-        <v>0.4906213113835278</v>
+        <v>0.6363027454756036</v>
       </c>
       <c r="N14">
-        <v>6.345497132879927</v>
+        <v>6.341632252229545</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.658771354191799</v>
+        <v>3.692776745757214</v>
       </c>
       <c r="C15">
-        <v>0.1253401371195935</v>
+        <v>0.4000552670615605</v>
       </c>
       <c r="D15">
-        <v>0.1073983464985702</v>
+        <v>0.3107152744058652</v>
       </c>
       <c r="E15">
-        <v>0.0352351815486287</v>
+        <v>0.01288923642138107</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002649585151116675</v>
+        <v>0.0008205545433516738</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.248022105578571</v>
+        <v>3.680383924916612</v>
       </c>
       <c r="L15">
-        <v>0.2125000980683609</v>
+        <v>0.2130413769614989</v>
       </c>
       <c r="M15">
-        <v>0.4892803299685653</v>
+        <v>0.6294758164771608</v>
       </c>
       <c r="N15">
-        <v>6.334264469315315</v>
+        <v>6.305298027961612</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.611975180484535</v>
+        <v>3.460948046251758</v>
       </c>
       <c r="C16">
-        <v>0.1183758407680955</v>
+        <v>0.3710804235841749</v>
       </c>
       <c r="D16">
-        <v>0.1020645978117045</v>
+        <v>0.2886960875838582</v>
       </c>
       <c r="E16">
-        <v>0.03527719918807382</v>
+        <v>0.01279145875125387</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002653198423314312</v>
+        <v>0.0008275294989548838</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.197242655878256</v>
+        <v>3.439277544205027</v>
       </c>
       <c r="L16">
-        <v>0.2103901644333348</v>
+        <v>0.2011731246637538</v>
       </c>
       <c r="M16">
-        <v>0.4816736530517289</v>
+        <v>0.590866530217184</v>
       </c>
       <c r="N16">
-        <v>6.270037502089423</v>
+        <v>6.099434131729708</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.583651970175424</v>
+        <v>3.321274069684421</v>
       </c>
       <c r="C17">
-        <v>0.1141172185017183</v>
+        <v>0.3536094022976215</v>
       </c>
       <c r="D17">
-        <v>0.09880587023977228</v>
+        <v>0.2753970109770307</v>
       </c>
       <c r="E17">
-        <v>0.03530451647660193</v>
+        <v>0.01273503389739972</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002655462829824677</v>
+        <v>0.0008318241587947862</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.166428567197158</v>
+        <v>3.293978886886578</v>
       </c>
       <c r="L17">
-        <v>0.2091234567013203</v>
+        <v>0.1940281785188347</v>
       </c>
       <c r="M17">
-        <v>0.4770766035506853</v>
+        <v>0.567608182655583</v>
       </c>
       <c r="N17">
-        <v>6.230762892733907</v>
+        <v>5.975103659108328</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.56750220655988</v>
+        <v>3.241802883593493</v>
       </c>
       <c r="C18">
-        <v>0.1116727344983417</v>
+        <v>0.3436626683838711</v>
       </c>
       <c r="D18">
-        <v>0.09693638820826322</v>
+        <v>0.2678181916386819</v>
       </c>
       <c r="E18">
-        <v>0.0353207958104389</v>
+        <v>0.01270381825037781</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002656782865490187</v>
+        <v>0.0008343013237614613</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.148828658080618</v>
+        <v>3.21129305336342</v>
       </c>
       <c r="L18">
-        <v>0.2084050355837519</v>
+        <v>0.1899650705404383</v>
       </c>
       <c r="M18">
-        <v>0.474457947204435</v>
+        <v>0.554376062619248</v>
       </c>
       <c r="N18">
-        <v>6.208219311395226</v>
+        <v>5.904260078918128</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.562058354172962</v>
+        <v>3.215037674946359</v>
       </c>
       <c r="C19">
-        <v>0.1108459181596686</v>
+        <v>0.3403115515081652</v>
       </c>
       <c r="D19">
-        <v>0.09630424176229724</v>
+        <v>0.2652636628849336</v>
       </c>
       <c r="E19">
-        <v>0.03532640520865549</v>
+        <v>0.01269345569272096</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002657232836101474</v>
+        <v>0.0008351413582141578</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.142890804610204</v>
+        <v>3.183442581869826</v>
       </c>
       <c r="L19">
-        <v>0.208163533634405</v>
+        <v>0.1885970432630728</v>
       </c>
       <c r="M19">
-        <v>0.4735756797717627</v>
+        <v>0.5499198385135671</v>
       </c>
       <c r="N19">
-        <v>6.200594330586796</v>
+        <v>5.88038366231396</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.586652422846441</v>
+        <v>3.336051500986571</v>
       </c>
       <c r="C20">
-        <v>0.114570040463235</v>
+        <v>0.3554584431188346</v>
       </c>
       <c r="D20">
-        <v>0.09915226394792853</v>
+        <v>0.2768052905302056</v>
       </c>
       <c r="E20">
-        <v>0.03530154982696887</v>
+        <v>0.012740910753402</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002655219958651605</v>
+        <v>0.000831366287609754</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.169695983003123</v>
+        <v>3.309352863734432</v>
       </c>
       <c r="L20">
-        <v>0.2092572485549482</v>
+        <v>0.1947838852478014</v>
       </c>
       <c r="M20">
-        <v>0.4775633325334638</v>
+        <v>0.5700687678746945</v>
       </c>
       <c r="N20">
-        <v>6.234938958741139</v>
+        <v>5.988268573694</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.670972468342939</v>
+        <v>3.753477438543825</v>
       </c>
       <c r="C21">
-        <v>0.1271425052208599</v>
+        <v>0.4076383256014537</v>
       </c>
       <c r="D21">
-        <v>0.1087795900499913</v>
+        <v>0.3164702634326346</v>
       </c>
       <c r="E21">
-        <v>0.03522480905390291</v>
+        <v>0.01291564129248091</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002648667007269635</v>
+        <v>0.0008187575830219914</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.261237081431716</v>
+        <v>3.743504130651445</v>
       </c>
       <c r="L21">
-        <v>0.2130534055950193</v>
+        <v>0.2161504858645031</v>
       </c>
       <c r="M21">
-        <v>0.49126572936418</v>
+        <v>0.6395859707614306</v>
       </c>
       <c r="N21">
-        <v>6.350886041199658</v>
+        <v>6.359099168074863</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.727344384387834</v>
+        <v>4.035558989054607</v>
       </c>
       <c r="C22">
-        <v>0.135405441825867</v>
+        <v>0.4428660606246808</v>
       </c>
       <c r="D22">
-        <v>0.1151160024510602</v>
+        <v>0.3431627951028844</v>
       </c>
       <c r="E22">
-        <v>0.03517968593118947</v>
+        <v>0.01304243435806107</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002644540032090725</v>
+        <v>0.0008105524792580895</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.322174770470895</v>
+        <v>4.036790825751893</v>
       </c>
       <c r="L22">
-        <v>0.2156251145524521</v>
+        <v>0.2306055888886362</v>
       </c>
       <c r="M22">
-        <v>0.500448899390733</v>
+        <v>0.6865725075415057</v>
       </c>
       <c r="N22">
-        <v>6.427082952955857</v>
+        <v>6.608577283590932</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.697141575944443</v>
+        <v>3.884076260768097</v>
       </c>
       <c r="C23">
-        <v>0.1309910452292513</v>
+        <v>0.4239499890905165</v>
       </c>
       <c r="D23">
-        <v>0.1117300191871209</v>
+        <v>0.328838638146749</v>
       </c>
       <c r="E23">
-        <v>0.03520330952292605</v>
+        <v>0.01297352567827215</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002646728475342329</v>
+        <v>0.0008149298687323335</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.289549087478747</v>
+        <v>3.879297729084783</v>
       </c>
       <c r="L23">
-        <v>0.2142442327132414</v>
+        <v>0.2228416737358145</v>
       </c>
       <c r="M23">
-        <v>0.4955267563879744</v>
+        <v>0.6613392288374982</v>
       </c>
       <c r="N23">
-        <v>6.386376519568728</v>
+        <v>6.474713165433172</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.585295502065662</v>
+        <v>3.329368057819238</v>
       </c>
       <c r="C24">
-        <v>0.114365307667839</v>
+        <v>0.3546221900581656</v>
       </c>
       <c r="D24">
-        <v>0.09899564689476392</v>
+        <v>0.2761684001548161</v>
       </c>
       <c r="E24">
-        <v>0.03530288926033487</v>
+        <v>0.0127382500312625</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002655329704040071</v>
+        <v>0.0008315732656228554</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.168218424606721</v>
+        <v>3.302399663922017</v>
       </c>
       <c r="L24">
-        <v>0.2091967306545115</v>
+        <v>0.1944420920746381</v>
       </c>
       <c r="M24">
-        <v>0.477343206845191</v>
+        <v>0.5689559057664866</v>
       </c>
       <c r="N24">
-        <v>6.233050847520417</v>
+        <v>5.982314748201532</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.47003685507957</v>
+        <v>2.763463164847622</v>
       </c>
       <c r="C25">
-        <v>0.09662033278863191</v>
+        <v>0.2836568392094136</v>
       </c>
       <c r="D25">
-        <v>0.0854443229963664</v>
+        <v>0.2219891177322353</v>
       </c>
       <c r="E25">
-        <v>0.03543199744222081</v>
+        <v>0.01253121395303491</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002665281392464486</v>
+        <v>0.0008498045248710182</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.042060530952313</v>
+        <v>2.713307881396418</v>
       </c>
       <c r="L25">
-        <v>0.2041402851651668</v>
+        <v>0.1655527936860608</v>
       </c>
       <c r="M25">
-        <v>0.4587013185561943</v>
+        <v>0.4747585826989251</v>
       </c>
       <c r="N25">
-        <v>6.0694228687573</v>
+        <v>5.476226724529113</v>
       </c>
       <c r="O25">
         <v>0</v>
